--- a/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_2015.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_2015.xlsx
@@ -137,9 +137,6 @@
     <t>Grünenthal Pharma AG</t>
   </si>
   <si>
-    <t>Hoffmann-La Roche</t>
-  </si>
-  <si>
     <t>Janssen Pharmaceutica</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>Pierre Fabre</t>
+  </si>
+  <si>
+    <t>Roche Pharma AG</t>
   </si>
   <si>
     <t>Sandoz Pharmaceuticals AG</t>
@@ -2942,28 +2942,28 @@
         <v>11</v>
       </c>
       <c r="C78" t="n">
-        <v>1826290</v>
+        <v>2611851</v>
       </c>
       <c r="D78" t="n">
-        <v>1523096</v>
+        <v>812884</v>
       </c>
       <c r="E78" t="n">
-        <v>5821</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>5122</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>492447</v>
+        <v>30050</v>
       </c>
       <c r="H78" t="n">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>3853169</v>
+        <v>3454785</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2978,22 +2978,22 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>115201</v>
+        <v>15505</v>
       </c>
       <c r="F79" t="n">
-        <v>130981</v>
+        <v>29310</v>
       </c>
       <c r="G79" t="n">
-        <v>1979075</v>
+        <v>142767</v>
       </c>
       <c r="H79" t="n">
-        <v>101776</v>
+        <v>25431</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2327033</v>
+        <v>213013</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3020,10 +3020,10 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>6998109</v>
+        <v>2239565</v>
       </c>
       <c r="J80" t="n">
-        <v>6998109</v>
+        <v>2239565</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3034,10 +3034,10 @@
         <v>11</v>
       </c>
       <c r="C81" t="n">
-        <v>2611851</v>
+        <v>1600</v>
       </c>
       <c r="D81" t="n">
-        <v>812884</v>
+        <v>96557.35000000001</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>30050</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>3454785</v>
+        <v>98157.35000000001</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3070,22 +3070,22 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>15505</v>
+        <v>1436.55</v>
       </c>
       <c r="F82" t="n">
-        <v>29310</v>
+        <v>2781</v>
       </c>
       <c r="G82" t="n">
-        <v>142767</v>
+        <v>42410</v>
       </c>
       <c r="H82" t="n">
-        <v>25431</v>
+        <v>42</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>213013</v>
+        <v>46669.55</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3112,10 +3112,10 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>2239565</v>
+        <v>5000</v>
       </c>
       <c r="J83" t="n">
-        <v>2239565</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3126,10 +3126,10 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>96557.35000000001</v>
+        <v>340494</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -3138,16 +3138,16 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>27620</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>98157.35000000001</v>
+        <v>368660</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3162,90 +3162,90 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1436.55</v>
+        <v>2120</v>
       </c>
       <c r="F85" t="n">
-        <v>2781</v>
+        <v>2674</v>
       </c>
       <c r="G85" t="n">
-        <v>42410</v>
+        <v>205238</v>
       </c>
       <c r="H85" t="n">
-        <v>42</v>
+        <v>6073</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>46669.55</v>
+        <v>216105</v>
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="1" t="n"/>
+      <c r="A86" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B86" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>762403.25</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1994222.51</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>22237.74</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>91899.37</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>307438.09</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>106.3</v>
       </c>
       <c r="I86" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>5000</v>
+        <v>3178307.26</v>
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A87" s="1" t="n"/>
       <c r="B87" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>340494</v>
+        <v>63313.87</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>15231.24</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>61439.73</v>
       </c>
       <c r="G87" t="n">
-        <v>27620</v>
+        <v>462803.11</v>
       </c>
       <c r="H87" t="n">
-        <v>546</v>
+        <v>62104.39</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>368660</v>
+        <v>664892.34</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1" t="n"/>
       <c r="B88" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -3254,22 +3254,22 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>2120</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>2674</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>205238</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>6073</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1031039.46</v>
       </c>
       <c r="J88" t="n">
-        <v>216105</v>
+        <v>1031039.46</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3280,28 +3280,28 @@
         <v>11</v>
       </c>
       <c r="C89" t="n">
-        <v>762403.25</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>1994222.51</v>
+        <v>638566</v>
       </c>
       <c r="E89" t="n">
-        <v>22237.74</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>91899.37</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>307438.09</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>106.3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>3178307.26</v>
+        <v>638566</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3313,93 +3313,93 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>63313.87</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>15231.24</v>
+        <v>9704</v>
       </c>
       <c r="F90" t="n">
-        <v>61439.73</v>
+        <v>17049</v>
       </c>
       <c r="G90" t="n">
-        <v>462803.11</v>
+        <v>147225</v>
       </c>
       <c r="H90" t="n">
-        <v>62104.39</v>
+        <v>2319</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>664892.34</v>
+        <v>176297</v>
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="1" t="n"/>
+      <c r="A91" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B91" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>4858408.1</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>874911.5600000001</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>5688.17</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>20552.02</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>23600</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="I91" t="n">
-        <v>1031039.46</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1031039.46</v>
+        <v>5783392.85</v>
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A92" s="1" t="n"/>
       <c r="B92" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>638566</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>46026.21</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>139741.48</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>164875.78</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>12176.82</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>638566</v>
+        <v>362820.29</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="1" t="n"/>
       <c r="B93" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>9704</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>17049</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>147225</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>2319</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>2303382</v>
       </c>
       <c r="J93" t="n">
-        <v>176297</v>
+        <v>2303382</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3434,28 +3434,28 @@
         <v>11</v>
       </c>
       <c r="C94" t="n">
-        <v>4858408.1</v>
+        <v>745242.55</v>
       </c>
       <c r="D94" t="n">
-        <v>874911.5600000001</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>5688.17</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>20552.02</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>23600</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>5783392.85</v>
+        <v>745242.55</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3470,22 +3470,22 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>46026.21</v>
+        <v>42010</v>
       </c>
       <c r="F95" t="n">
-        <v>139741.48</v>
+        <v>81420.39999999999</v>
       </c>
       <c r="G95" t="n">
-        <v>164875.78</v>
+        <v>55798.2</v>
       </c>
       <c r="H95" t="n">
-        <v>12176.82</v>
+        <v>150</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>362820.29</v>
+        <v>179378.6</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3512,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>2303382</v>
+        <v>125500</v>
       </c>
       <c r="J96" t="n">
-        <v>2303382</v>
+        <v>125500</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3526,10 +3526,10 @@
         <v>11</v>
       </c>
       <c r="C97" t="n">
-        <v>745242.55</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>217590</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>745242.55</v>
+        <v>217590</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3562,34 +3562,36 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>42010</v>
+        <v>6883</v>
       </c>
       <c r="F98" t="n">
-        <v>81420.39999999999</v>
+        <v>14728</v>
       </c>
       <c r="G98" t="n">
-        <v>55798.2</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>150</v>
+        <v>27900</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>179378.6</v>
+        <v>49511</v>
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="1" t="n"/>
+      <c r="A99" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B99" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -3604,24 +3606,22 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>125500</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>125500</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A100" s="1" t="n"/>
       <c r="B100" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>217590</v>
+        <v>800</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -3639,81 +3639,81 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>217590</v>
+        <v>800</v>
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="1" t="n"/>
+      <c r="A101" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B101" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1824924.86</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>5000149.59</v>
       </c>
       <c r="E101" t="n">
-        <v>6883</v>
+        <v>136792.82</v>
       </c>
       <c r="F101" t="n">
-        <v>14728</v>
+        <v>175626.26</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1084468.07</v>
       </c>
       <c r="H101" t="n">
-        <v>27900</v>
+        <v>14473.13</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>49511</v>
+        <v>8236434.73</v>
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A102" s="1" t="n"/>
       <c r="B102" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>142183.35</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>260861.98</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>790465.03</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>103731.03</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>7000</v>
+        <v>1297241.39</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="n"/>
       <c r="B103" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -3728,10 +3728,10 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>16233766.85</v>
       </c>
       <c r="J103" t="n">
-        <v>800</v>
+        <v>16233766.85</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3742,28 +3742,28 @@
         <v>11</v>
       </c>
       <c r="C104" t="n">
-        <v>1824924.86</v>
+        <v>727870</v>
       </c>
       <c r="D104" t="n">
-        <v>5000149.59</v>
+        <v>168657</v>
       </c>
       <c r="E104" t="n">
-        <v>136792.82</v>
+        <v>1335</v>
       </c>
       <c r="F104" t="n">
-        <v>175626.26</v>
+        <v>4404</v>
       </c>
       <c r="G104" t="n">
-        <v>1084468.07</v>
+        <v>42414</v>
       </c>
       <c r="H104" t="n">
-        <v>14473.13</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>8236434.73</v>
+        <v>944680</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3775,25 +3775,25 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>26550</v>
       </c>
       <c r="E105" t="n">
-        <v>142183.35</v>
+        <v>77909</v>
       </c>
       <c r="F105" t="n">
-        <v>260861.98</v>
+        <v>290236</v>
       </c>
       <c r="G105" t="n">
-        <v>790465.03</v>
+        <v>226587</v>
       </c>
       <c r="H105" t="n">
-        <v>103731.03</v>
+        <v>18638</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1297241.39</v>
+        <v>639920</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3820,10 +3820,10 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>16233766.85</v>
+        <v>205170</v>
       </c>
       <c r="J106" t="n">
-        <v>16233766.85</v>
+        <v>205170</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3834,19 +3834,19 @@
         <v>11</v>
       </c>
       <c r="C107" t="n">
-        <v>727870</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>168657</v>
+        <v>168656</v>
       </c>
       <c r="E107" t="n">
-        <v>1335</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>4404</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>42414</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>944680</v>
+        <v>168656</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3867,155 +3867,155 @@
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>26550</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>77909</v>
+        <v>9901.24</v>
       </c>
       <c r="F108" t="n">
-        <v>290236</v>
+        <v>23947.66</v>
       </c>
       <c r="G108" t="n">
-        <v>226587</v>
+        <v>11500</v>
       </c>
       <c r="H108" t="n">
-        <v>18638</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>639920</v>
+        <v>45348.9</v>
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="1" t="n"/>
+      <c r="A109" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B109" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>102391.88</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>206.75</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>34016.2</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>832.67</v>
       </c>
       <c r="I109" t="n">
-        <v>205170</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>205170</v>
+        <v>147447.5</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A110" s="1" t="n"/>
       <c r="B110" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>168656</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>6457.11</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>23966.64</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>51965.15</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>6150.51</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>168656</v>
+        <v>88539.41</v>
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="1" t="n"/>
+      <c r="A111" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B111" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>797257</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>3115267</v>
       </c>
       <c r="E111" t="n">
-        <v>9901.24</v>
+        <v>5502</v>
       </c>
       <c r="F111" t="n">
-        <v>23947.66</v>
+        <v>22363</v>
       </c>
       <c r="G111" t="n">
-        <v>11500</v>
+        <v>183583</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>45348.9</v>
+        <v>4126972</v>
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A112" s="1" t="n"/>
       <c r="B112" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C112" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>102391.88</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>67428</v>
       </c>
       <c r="F112" t="n">
-        <v>206.75</v>
+        <v>193140</v>
       </c>
       <c r="G112" t="n">
-        <v>34016.2</v>
+        <v>305389</v>
       </c>
       <c r="H112" t="n">
-        <v>832.67</v>
+        <v>14282</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>147447.5</v>
+        <v>580239</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="1" t="n"/>
       <c r="B113" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>6457.11</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>23966.64</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>51965.15</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>6150.51</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1858318</v>
       </c>
       <c r="J113" t="n">
-        <v>88539.41</v>
+        <v>1858318</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4050,28 +4050,28 @@
         <v>11</v>
       </c>
       <c r="C114" t="n">
-        <v>797257</v>
+        <v>7835</v>
       </c>
       <c r="D114" t="n">
-        <v>3115267</v>
+        <v>231449</v>
       </c>
       <c r="E114" t="n">
-        <v>5502</v>
+        <v>5556.06</v>
       </c>
       <c r="F114" t="n">
-        <v>22363</v>
+        <v>11036.1</v>
       </c>
       <c r="G114" t="n">
-        <v>183583</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>4126972</v>
+        <v>255876.16</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4086,90 +4086,90 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>67428</v>
+        <v>19440.18</v>
       </c>
       <c r="F115" t="n">
-        <v>193140</v>
+        <v>47068.43</v>
       </c>
       <c r="G115" t="n">
-        <v>305389</v>
+        <v>29350</v>
       </c>
       <c r="H115" t="n">
-        <v>14282</v>
+        <v>1355</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>580239</v>
+        <v>97213.61</v>
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="1" t="n"/>
+      <c r="A116" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B116" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1826290</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1523096</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>5821</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>5122</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>492447</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="I116" t="n">
-        <v>1858318</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1858318</v>
+        <v>3853169</v>
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A117" s="1" t="n"/>
       <c r="B117" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C117" t="n">
-        <v>7835</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>231449</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>5556.06</v>
+        <v>115201</v>
       </c>
       <c r="F117" t="n">
-        <v>11036.1</v>
+        <v>130981</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>1979075</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>101776</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>255876.16</v>
+        <v>2327033</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="1" t="n"/>
       <c r="B118" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>19440.18</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>47068.43</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>29350</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>1355</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>6998109</v>
       </c>
       <c r="J118" t="n">
-        <v>97213.61</v>
+        <v>6998109</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -5025,20 +5025,20 @@
     <mergeCell ref="A75:A77"/>
     <mergeCell ref="A78:A80"/>
     <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A93"/>
     <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A103"/>
     <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A118"/>
     <mergeCell ref="A119:A121"/>
     <mergeCell ref="A122:A124"/>
     <mergeCell ref="A125:A127"/>

--- a/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_2015.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_2015.xlsx
@@ -4991,7 +4991,7 @@
         <v>48324978.05</v>
       </c>
       <c r="J144" t="n">
-        <v>140514136.21</v>
+        <v>140514136.22</v>
       </c>
     </row>
   </sheetData>
